--- a/biology/Zoologie/Apron_du_Rhône/Apron_du_Rhône.xlsx
+++ b/biology/Zoologie/Apron_du_Rhône/Apron_du_Rhône.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apron_du_Rh%C3%B4ne</t>
+          <t>Apron_du_Rhône</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Zingel asper
 L'Apron du Rhône (Zingel asper) est un poisson d'eau douce de la famille des percidés. Il est endémique du bassin Rhône-Méditerranée-Corse et dans quelques cours d'eau de Franche-Comté : Doubs franco-suisse, Loue. Il aurait récemment disparu de la Lanterne et de la confluence Doubs-Loue.
-Parfois encore appelé « roi du Doubs » (ou plutôt roy du Doubs[1], roy signifiant « rêche » en patois neuchâtelois), il est actuellement considéré comme en voie d'extinction et est pour cette raison inscrit à l’annexe 2 de la directive Habitats et donc considéré, comme son habitat, comme d’intérêt européen.
+Parfois encore appelé « roi du Doubs » (ou plutôt roy du Doubs, roy signifiant « rêche » en patois neuchâtelois), il est actuellement considéré comme en voie d'extinction et est pour cette raison inscrit à l’annexe 2 de la directive Habitats et donc considéré, comme son habitat, comme d’intérêt européen.
 On le considère comme un bon indicateur de la qualité des cours d'eau, car étant très sensible aux modifications physiques et biochimiques de son environnement.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apron_du_Rh%C3%B4ne</t>
+          <t>Apron_du_Rhône</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">De forme allongée et fusiforme, effilé et mince vers la queue, il est brun-jaunâtre tirant parfois nettement sur le gris.
-Hormis dans la zone pectorale, son corps est protégé par des écailles cténoïdes plus longues que chez la perche et présentant des spinules  plus nettes (qui donnent l'impression quand on le prend en main que son corps est rugueux)[2].
-Ses flancs sont marqués de 3 ou 4 bandes noirâtres descendant transversalement et obliquement vers le ventre. La première bande prend naissance sur la nuque à la première dorsale, mais n'est pas  toujours présente. La seconde est aussi la plus  longue, elle nait entre les dorsales, déborde sur  la seconde et descend jusque sous le ventre. La troisième, souvent nettement visible et assez  longue, nait à l’extrémité de la seconde dorsale[2]. La quatrième bande, près de la nageoire caudale est plus courte. Moreau estimait en 1881 qu'il y avait de nombreuses nuances possibles par rapport à la teinte  générale, ainsi que dans la disposition des bandes. Ce motif disruptif lui procure un excellent camouflage dans les cailloutis de fond de cours d'eau[2].
+Hormis dans la zone pectorale, son corps est protégé par des écailles cténoïdes plus longues que chez la perche et présentant des spinules  plus nettes (qui donnent l'impression quand on le prend en main que son corps est rugueux).
+Ses flancs sont marqués de 3 ou 4 bandes noirâtres descendant transversalement et obliquement vers le ventre. La première bande prend naissance sur la nuque à la première dorsale, mais n'est pas  toujours présente. La seconde est aussi la plus  longue, elle nait entre les dorsales, déborde sur  la seconde et descend jusque sous le ventre. La troisième, souvent nettement visible et assez  longue, nait à l’extrémité de la seconde dorsale. La quatrième bande, près de la nageoire caudale est plus courte. Moreau estimait en 1881 qu'il y avait de nombreuses nuances possibles par rapport à la teinte  générale, ainsi que dans la disposition des bandes. Ce motif disruptif lui procure un excellent camouflage dans les cailloutis de fond de cours d'eau.
 La tête au museau gros et arrondi, à la bouche en position inférieure est déprimée dorso-ventralement, s’élargissant vers le dos, et lui donnant sa forme typique. Le crâne et l’espace situé entre les yeux sont garnis d’écailles. Le museau est dépourvu d'écailles, comme les mâchoires et les  joues.Couleur : il porte en général 3 à 4 bandes sur les flancs, sauf lorsqu'il est posé sur un substrat de couleur uni : dans ce cas, les barres peuvent disparaitre. La tête peut également noircir ou pâlir selon l'environnement et le stress du poisson.
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apron_du_Rh%C3%B4ne</t>
+          <t>Apron_du_Rhône</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est territoriale et benthique et ses populations naturellement peu denses.
 Il se nourrit essentiellement la nuit.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Apron_du_Rh%C3%B4ne</t>
+          <t>Apron_du_Rhône</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans des rivières courantes à fond de galets-graviers où alternent fosses et radiers, ces derniers étant nécessaires à sa reproduction.
 Bien que pouvant supporter occasionnellement une température de l'eau voisine de 30 °C dans des rivières peu polluées (observation dans l'Ardèche et en captivité) et de faibles taux d'oxygène, l'espèce semble avoir récemment disparu des parties de cours d'eau où la température dépasse fréquemment 28 °C à la suite des effets combinés des prélèvements d'eau et du réchauffement climatique (Gard, Cèze, Durance aval, Ardèche aval...).
@@ -594,7 +612,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Apron_du_Rh%C3%B4ne</t>
+          <t>Apron_du_Rhône</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,11 +630,13 @@
           <t>Reproduction, cycle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maturité sexuelle est atteinte à 1 ou 2 ans pour le mâle, à 2 ou 3 ans pour la femelle. Chaque femelle produit de 300 et 2 000 ovules, expulsés en une trentaine de fois, « à raison d’une quarantaine d’ovocytes à la fois », sur le gravier dans une zone de courant moyen, opération qui prend jusqu'à 7 heures. la ponte se fait de fin février à mi-mai dans une eau fraiche (8-12 °C) avec un maxima d'activité de reproduction en mars-avril dans une eau de 10 à 11 °C[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maturité sexuelle est atteinte à 1 ou 2 ans pour le mâle, à 2 ou 3 ans pour la femelle. Chaque femelle produit de 300 et 2 000 ovules, expulsés en une trentaine de fois, « à raison d’une quarantaine d’ovocytes à la fois », sur le gravier dans une zone de courant moyen, opération qui prend jusqu'à 7 heures. la ponte se fait de fin février à mi-mai dans une eau fraiche (8-12 °C) avec un maxima d'activité de reproduction en mars-avril dans une eau de 10 à 11 °C.
 Dans le cadre du projet Life apron II, on a montré en 2008 grâce à des caméras vidéos subaquatiques que certaines femelles (les plus grosses en général) 
-sont capables de diviser leur ponte en plusieurs nuits, avec 24 ou 48 heures de décalage, mais dans la majorité des cas, le frai ne dure qu'une nuit[2]. Quelques cas de ponte faite de jour ont aussi été observées. Les mâles passent la saison de reproduction sur les frayères (où les femelles ne se rendent que pour pondre). Selon les observations rassemblées lors de cette étude, lors du frai un à douze mâles courtisent une ou deux femelles et fécondent leurs œufs, mais plus généralement ce sont 2 à 3 mâles pour une femelle qui assurent la fécondation[2].
+sont capables de diviser leur ponte en plusieurs nuits, avec 24 ou 48 heures de décalage, mais dans la majorité des cas, le frai ne dure qu'une nuit. Quelques cas de ponte faite de jour ont aussi été observées. Les mâles passent la saison de reproduction sur les frayères (où les femelles ne se rendent que pour pondre). Selon les observations rassemblées lors de cette étude, lors du frai un à douze mâles courtisent une ou deux femelles et fécondent leurs œufs, mais plus généralement ce sont 2 à 3 mâles pour une femelle qui assurent la fécondation.
 </t>
         </is>
       </c>
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Apron_du_Rh%C3%B4ne</t>
+          <t>Apron_du_Rhône</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Durée de vie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Son espérance de vie dans le milieu naturel est estimé à 3 ans sur un cours comme la Beaume à 6 ans sur le Verdon. Des variations existent selon les cours d'eau. Le record de longévité en captivité est de 9 ans.
 </t>
@@ -658,7 +680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Apron_du_Rh%C3%B4ne</t>
+          <t>Apron_du_Rhône</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,7 +698,9 @@
           <t>Causes de disparition</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Modifications de la morphologie des cours d'eau par curage, rectification/chenalisation, endiguement, création de retenues qui font disparaître les zones de courant nécessaires à la reproduction de l'espèce et à son alimentation ;
 fragmentation écologique des cours d'eau, faisant obstacle  aux déplacements de l'espèce (barrages, seuils), manque de passe à poissons adaptée, qui déconnectent les populations les unes des autres ;
@@ -691,7 +715,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Apron_du_Rh%C3%B4ne</t>
+          <t>Apron_du_Rhône</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -709,7 +733,9 @@
           <t>Les programmes de préservation[3]</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Un premier programme Life piloté par Réserves naturelles de France de 1998 à 2001 a permis d’acquérir les bases de connaissances de l’espèce indispensables pour définir une stratégie de conservation qui s’est conclue par la rédaction d’un guide de gestion de l’Apron du Rhône.
 Le second programme Life de préservation de l’Apron du Rhône et de ses habitats porté par le Conservatoire d'espaces naturels Rhône-Alpes en partenariat avec l’Office National de L’Eau et des Milieux Aquatiques de 2004 à 2010, a eu pour tâche de mettre en œuvre cette stratégie avec pour objectifs principaux :
